--- a/docs/Teaching/CHEM 3A Rosters.xlsx
+++ b/docs/Teaching/CHEM 3A Rosters.xlsx
@@ -5,22 +5,38 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mavigozler GitHub\mavigozler.github.io\docs\Teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8ED631-9FD8-432E-A998-5D8F6A6E0A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FA185F-F56A-4CE0-A626-CC8896A7A293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-390" yWindow="1065" windowWidth="38700" windowHeight="19680" xr2:uid="{763FEF00-4923-4B70-A26D-B6D6A41B323B}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="38400" windowHeight="19680" xr2:uid="{763FEF00-4923-4B70-A26D-B6D6A41B323B}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEM 3A Rosters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CHEM 3A Rosters'!$A$89:$D$103</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="90">
   <si>
     <t>Tuesday, 12 August 2025  --- CHEM 3A Lecture</t>
   </si>
@@ -283,7 +299,13 @@
     <t>Deven I. Ramirez</t>
   </si>
   <si>
-    <t>Tuesday, 14 August 2025  --- CHEM 3A Laboratory</t>
+    <t>Thursday, 14 August 2025  --- CHEM 3A Laboratory</t>
+  </si>
+  <si>
+    <t>Thursday, 14 August 2025  --- CHEM 3A Lecture</t>
+  </si>
+  <si>
+    <t>29 total (waiting for one)</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B606EAE-F62C-4783-B912-989F8625137B}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1328,7 +1350,7 @@
       <c r="J3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" s="6"/>
       <c r="P3" s="6"/>
@@ -1350,7 +1372,7 @@
       <c r="J4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7"/>
       <c r="P4" s="7"/>
@@ -1372,7 +1394,7 @@
       <c r="J5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7"/>
       <c r="P5" s="7"/>
@@ -1394,7 +1416,7 @@
       <c r="J6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7"/>
       <c r="P6" s="7"/>
@@ -1416,7 +1438,7 @@
       <c r="J7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7"/>
       <c r="P7" s="7"/>
@@ -1438,7 +1460,7 @@
       <c r="J8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7"/>
       <c r="P8" s="7"/>
@@ -1460,7 +1482,7 @@
       <c r="J9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7"/>
       <c r="P9" s="7"/>
@@ -1482,7 +1504,7 @@
       <c r="J10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7"/>
       <c r="P10" s="7"/>
@@ -1504,7 +1526,7 @@
       <c r="J11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7"/>
       <c r="P11" s="7"/>
@@ -1526,7 +1548,7 @@
       <c r="J12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N12" s="7"/>
       <c r="P12" s="7"/>
@@ -1548,7 +1570,7 @@
       <c r="J13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7"/>
       <c r="P13" s="7"/>
@@ -1570,7 +1592,7 @@
       <c r="J14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7"/>
       <c r="P14" s="7"/>
@@ -1592,7 +1614,7 @@
       <c r="J15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="7"/>
       <c r="P15" s="7"/>
@@ -1614,7 +1636,7 @@
       <c r="J16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7"/>
       <c r="P16" s="7"/>
@@ -1636,7 +1658,7 @@
       <c r="J17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17" s="7"/>
       <c r="P17" s="7"/>
@@ -1658,7 +1680,7 @@
       <c r="J18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N18" s="7"/>
       <c r="P18" s="7"/>
@@ -1680,7 +1702,7 @@
       <c r="J19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7"/>
       <c r="P19" s="7"/>
@@ -1702,7 +1724,7 @@
       <c r="J20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N20" s="7"/>
       <c r="P20" s="7"/>
@@ -1724,7 +1746,7 @@
       <c r="J21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N21" s="7"/>
       <c r="P21" s="7"/>
@@ -1746,7 +1768,7 @@
       <c r="J22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N22" s="7"/>
       <c r="P22" s="7"/>
@@ -1768,7 +1790,7 @@
       <c r="J23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N23" s="7"/>
       <c r="P23" s="7"/>
@@ -1790,7 +1812,7 @@
       <c r="J24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N24" s="7"/>
       <c r="P24" s="7"/>
@@ -1812,7 +1834,7 @@
       <c r="J25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N25" s="7"/>
       <c r="P25" s="7"/>
@@ -1834,7 +1856,7 @@
       <c r="J26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N26" s="7"/>
       <c r="P26" s="7"/>
@@ -1856,7 +1878,7 @@
       <c r="J27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N27" s="7"/>
       <c r="P27" s="7"/>
@@ -1878,7 +1900,7 @@
       <c r="J28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N28" s="7"/>
       <c r="P28" s="7"/>
@@ -1900,7 +1922,7 @@
       <c r="J29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N29" s="7"/>
       <c r="P29" s="7"/>
@@ -1922,7 +1944,7 @@
       <c r="J30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N30" s="7"/>
       <c r="P30" s="7"/>
@@ -1944,7 +1966,7 @@
       <c r="J31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N31" s="7"/>
       <c r="P31" s="7"/>
@@ -1966,7 +1988,7 @@
       <c r="J32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N32" s="7"/>
       <c r="P32" s="7"/>
@@ -2200,64 +2222,813 @@
       <c r="B48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="6"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B54" s="7"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B55" s="7"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B56" s="7"/>
       <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="M57" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="P60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="7"/>
+      <c r="P61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="P62" s="7"/>
+    </row>
+    <row r="63" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="7"/>
+      <c r="P66" s="7"/>
+    </row>
+    <row r="67" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" s="7"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" s="7"/>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N72" s="7"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N73" s="7"/>
+      <c r="P73" s="7"/>
+    </row>
+    <row r="74" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" s="7"/>
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N75" s="7"/>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N77" s="7"/>
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N78" s="7"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N79" s="7"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N80" s="7"/>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N81" s="7"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N82" s="7"/>
+      <c r="P82" s="7"/>
+    </row>
+    <row r="83" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N83" s="7"/>
+      <c r="P83" s="7"/>
+    </row>
+    <row r="84" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N84" s="7"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N85" s="7"/>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N86" s="7"/>
+      <c r="P86" s="7"/>
+    </row>
+    <row r="87" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N87" s="7"/>
+      <c r="P87" s="7"/>
+    </row>
+    <row r="88" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N88" s="7"/>
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="7"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="D103" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="56" max="16383" man="1"/>
+    <brk id="88" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>